--- a/data/outputs/management_elsevier/97.xlsx
+++ b/data/outputs/management_elsevier/97.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS99"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84937509638</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>6843</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1164,6 +1180,12 @@
           <t>2-s2.0-84938409602</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>3992</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1385,6 +1407,12 @@
           <t>2-s2.0-84937128338</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>6531</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1600,6 +1628,12 @@
           <t>2-s2.0-84938081285</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>977</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1803,6 +1837,12 @@
           <t>2-s2.0-84938797312</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1552</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2006,6 +2046,12 @@
           <t>2-s2.0-84939633177</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1564</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2213,6 +2259,12 @@
           <t>2-s2.0-84939599616</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>998</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2438,6 +2490,12 @@
           <t>2-s2.0-84940778628</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1587</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2663,6 +2721,12 @@
           <t>2-s2.0-84939623025</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1201</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2884,6 +2948,12 @@
           <t>2-s2.0-84940740131</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1678</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3109,6 +3179,12 @@
           <t>2-s2.0-84940768591</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>32482</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3316,6 +3392,12 @@
           <t>2-s2.0-84940775170</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>959</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3538,6 +3620,12 @@
         <is>
           <t>2-s2.0-84926324236</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>5873</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -3730,6 +3818,12 @@
         <v>4061070</v>
       </c>
       <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3921,6 +4015,12 @@
         <v>4061068</v>
       </c>
       <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4152,6 +4252,12 @@
           <t>2-s2.0-84926483372</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>3081</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4367,6 +4473,12 @@
           <t>2-s2.0-84928226697</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1674</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4582,6 +4694,12 @@
           <t>2-s2.0-84927762338</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1745</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4907,12 @@
           <t>2-s2.0-84928523501</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1264</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5012,6 +5136,12 @@
           <t>2-s2.0-84928566841</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5235,6 +5365,12 @@
           <t>2-s2.0-84928638407</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1148</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5456,6 +5592,12 @@
           <t>2-s2.0-84928613058</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1040</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5665,6 +5807,12 @@
           <t>2-s2.0-84930629119</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4222</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5882,6 +6030,12 @@
           <t>2-s2.0-84930614040</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1744</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6105,6 +6259,12 @@
           <t>2-s2.0-84930666462</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>867</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6312,6 +6472,12 @@
           <t>2-s2.0-84930633771</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1494</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6527,6 +6693,12 @@
           <t>2-s2.0-84934964023</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2312</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6742,6 +6914,12 @@
           <t>2-s2.0-84930628607</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>4248</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6949,6 +7127,12 @@
           <t>2-s2.0-84934901307</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2534</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7178,6 +7362,12 @@
           <t>2-s2.0-84935010429</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3187</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7397,6 +7587,12 @@
           <t>2-s2.0-84935005754</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2874</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7608,6 +7804,12 @@
           <t>2-s2.0-84934961177</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>388</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7817,6 +8019,12 @@
           <t>2-s2.0-84934991492</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1256</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8036,6 +8244,12 @@
           <t>2-s2.0-84935030297</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>564</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8245,6 +8459,12 @@
           <t>2-s2.0-84934288861</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2032</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8452,6 +8672,12 @@
           <t>2-s2.0-84934761697</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1496</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8663,6 +8889,12 @@
           <t>2-s2.0-84939989273</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>799</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8876,6 +9108,12 @@
           <t>2-s2.0-84939970209</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1816</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9089,6 +9327,12 @@
           <t>2-s2.0-84939959798</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>736</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9316,6 +9560,12 @@
           <t>2-s2.0-84939983888</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1481</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9535,6 +9785,12 @@
           <t>2-s2.0-84929310430</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1329</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9753,6 +10009,12 @@
         <is>
           <t>2-s2.0-84939938467</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>1309</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -9963,6 +10225,12 @@
           <t>2-s2.0-84939936233</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1285</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10182,6 +10450,12 @@
           <t>2-s2.0-84939970334</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1641</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10403,6 +10677,12 @@
           <t>2-s2.0-84939952650</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1389</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10622,6 +10902,12 @@
           <t>2-s2.0-84939949859</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1335</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10841,6 +11127,12 @@
           <t>2-s2.0-84930384731</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1551</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11060,6 +11352,12 @@
           <t>2-s2.0-84939944478</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>872</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11274,6 +11572,12 @@
         <is>
           <t>2-s2.0-84939991226</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>1533</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -11496,6 +11800,12 @@
           <t>2-s2.0-84923099770</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11717,6 +12027,12 @@
           <t>2-s2.0-84923076551</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1026</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11924,6 +12240,12 @@
           <t>2-s2.0-84923341351</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>3797</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12141,6 +12463,12 @@
           <t>2-s2.0-84923320937</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1111</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12350,6 +12678,12 @@
           <t>2-s2.0-84924082653</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2092</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12569,6 +12903,12 @@
           <t>2-s2.0-84924056983</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>762</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12776,6 +13116,12 @@
           <t>2-s2.0-84924269556</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>2923</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12999,6 +13345,12 @@
           <t>2-s2.0-84924275636</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>762</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13208,6 +13560,12 @@
           <t>2-s2.0-84924300035</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1555</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13423,6 +13781,12 @@
           <t>2-s2.0-84925432530</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1491</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13634,6 +13998,12 @@
           <t>2-s2.0-84925387479</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>561</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13855,6 +14225,12 @@
           <t>2-s2.0-84919423727</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>898</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14072,6 +14448,12 @@
           <t>2-s2.0-84911904483</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1585</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14301,6 +14683,12 @@
           <t>2-s2.0-84949115400</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>8269</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14520,6 +14908,12 @@
           <t>2-s2.0-84917706714</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1794</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14743,6 +15137,12 @@
           <t>2-s2.0-84917706959</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>810</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14964,6 +15364,12 @@
           <t>2-s2.0-84919935190</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>2475</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15171,6 +15577,12 @@
           <t>2-s2.0-84919934366</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>992</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15394,6 +15806,12 @@
           <t>2-s2.0-84920180718</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1807</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15603,6 +16021,12 @@
           <t>2-s2.0-84925501890</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1206</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15822,6 +16246,12 @@
           <t>2-s2.0-84921490369</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1517</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16039,6 +16469,12 @@
           <t>2-s2.0-84925061230</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>3498</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16258,6 +16694,12 @@
           <t>2-s2.0-84921263471</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1270</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16477,6 +16919,12 @@
           <t>2-s2.0-84922444212</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>692</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16688,6 +17136,12 @@
           <t>2-s2.0-84922465342</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>3226</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16907,6 +17361,12 @@
           <t>2-s2.0-84923006606</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1835</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17106,6 +17566,12 @@
           <t>2-s2.0-84925490637</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>487</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17321,6 +17787,12 @@
           <t>2-s2.0-84925489519</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>820</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17536,6 +18008,12 @@
           <t>2-s2.0-84925502908</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17745,6 +18223,12 @@
           <t>2-s2.0-84925514090</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17952,6 +18436,12 @@
           <t>2-s2.0-84925271272</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>890</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18159,6 +18649,12 @@
           <t>2-s2.0-84925520128</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1138</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18372,6 +18868,12 @@
           <t>2-s2.0-84907504509</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2328</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18579,6 +19081,12 @@
           <t>2-s2.0-84930935951</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>2589</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18790,6 +19298,12 @@
           <t>2-s2.0-84907484178</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1641</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19010,6 +19524,12 @@
         <is>
           <t>2-s2.0-84908032585</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>3517</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -19224,6 +19744,12 @@
           <t>2-s2.0-84908583858</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2134</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19444,6 +19970,12 @@
         <is>
           <t>2-s2.0-84908573959</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>2447</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -19654,6 +20186,12 @@
           <t>2-s2.0-84908583864</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1021</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19878,6 +20416,12 @@
         <is>
           <t>2-s2.0-84908577356</t>
         </is>
+      </c>
+      <c r="BT90" t="n">
+        <v>8536</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -20082,6 +20626,12 @@
           <t>2-s2.0-84913594851</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1075</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20302,6 +20852,12 @@
         <is>
           <t>2-s2.0-84913537695</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>1046</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -20510,6 +21066,12 @@
           <t>2-s2.0-84913545873</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1078</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20725,6 +21287,12 @@
           <t>2-s2.0-84913543844</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>1793</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20941,6 +21509,12 @@
         <is>
           <t>2-s2.0-84913537722</t>
         </is>
+      </c>
+      <c r="BT95" t="n">
+        <v>2185</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -21149,6 +21723,12 @@
           <t>2-s2.0-84913573211</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>4201</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21378,6 +21958,12 @@
           <t>2-s2.0-84930935592</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>1616</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21598,6 +22184,12 @@
         <is>
           <t>2-s2.0-84913556022</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>1598</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -21812,6 +22404,12 @@
           <t>2-s2.0-84913541065</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>8688</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
